--- a/natmiOut/OldD0/LR-pairs_lrc2p/Fn1-Itga9.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Fn1-Itga9.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.5477615340025</v>
+        <v>27.03890566666666</v>
       </c>
       <c r="H2">
-        <v>25.5477615340025</v>
+        <v>81.11671699999999</v>
       </c>
       <c r="I2">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033728</v>
       </c>
       <c r="J2">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033729</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.45154717262048</v>
+        <v>2.044118333333333</v>
       </c>
       <c r="N2">
-        <v>1.45154717262048</v>
+        <v>6.132354999999999</v>
       </c>
       <c r="O2">
-        <v>0.133324603936485</v>
+        <v>0.1776005292722278</v>
       </c>
       <c r="P2">
-        <v>0.133324603936485</v>
+        <v>0.1776005292722278</v>
       </c>
       <c r="Q2">
-        <v>37.08378102146359</v>
+        <v>55.27072278650387</v>
       </c>
       <c r="R2">
-        <v>37.08378102146359</v>
+        <v>497.4365050785349</v>
       </c>
       <c r="S2">
-        <v>0.009073982237495977</v>
+        <v>0.01260286783515737</v>
       </c>
       <c r="T2">
-        <v>0.009073982237495977</v>
+        <v>0.01260286783515738</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.5477615340025</v>
+        <v>27.03890566666666</v>
       </c>
       <c r="H3">
-        <v>25.5477615340025</v>
+        <v>81.11671699999999</v>
       </c>
       <c r="I3">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033728</v>
       </c>
       <c r="J3">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033729</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.04835693560671</v>
+        <v>7.059280333333334</v>
       </c>
       <c r="N3">
-        <v>7.04835693560671</v>
+        <v>21.177841</v>
       </c>
       <c r="O3">
-        <v>0.6473915657499887</v>
+        <v>0.6133362746356149</v>
       </c>
       <c r="P3">
-        <v>0.6473915657499887</v>
+        <v>0.6133362746356149</v>
       </c>
       <c r="Q3">
-        <v>180.0697421974129</v>
+        <v>190.8752150075552</v>
       </c>
       <c r="R3">
-        <v>180.0697421974129</v>
+        <v>1717.876935067997</v>
       </c>
       <c r="S3">
-        <v>0.04406103145911946</v>
+        <v>0.04352349646375286</v>
       </c>
       <c r="T3">
-        <v>0.04406103145911946</v>
+        <v>0.04352349646375286</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.5477615340025</v>
+        <v>27.03890566666666</v>
       </c>
       <c r="H4">
-        <v>25.5477615340025</v>
+        <v>81.11671699999999</v>
       </c>
       <c r="I4">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033728</v>
       </c>
       <c r="J4">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033729</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.38741248423003</v>
+        <v>2.406242333333333</v>
       </c>
       <c r="N4">
-        <v>2.38741248423003</v>
+        <v>7.218726999999999</v>
       </c>
       <c r="O4">
-        <v>0.2192838303135265</v>
+        <v>0.2090631960921573</v>
       </c>
       <c r="P4">
-        <v>0.2192838303135265</v>
+        <v>0.2090631960921573</v>
       </c>
       <c r="Q4">
-        <v>60.99304483040932</v>
+        <v>65.06215946213987</v>
       </c>
       <c r="R4">
-        <v>60.99304483040932</v>
+        <v>585.5594351592589</v>
       </c>
       <c r="S4">
-        <v>0.01492430896087971</v>
+        <v>0.01483551789142704</v>
       </c>
       <c r="T4">
-        <v>0.01492430896087971</v>
+        <v>0.01483551789142705</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>341.49718029295</v>
+        <v>345.566579</v>
       </c>
       <c r="H5">
-        <v>341.49718029295</v>
+        <v>1036.699737</v>
       </c>
       <c r="I5">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350353</v>
       </c>
       <c r="J5">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350354</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.45154717262048</v>
+        <v>2.044118333333333</v>
       </c>
       <c r="N5">
-        <v>1.45154717262048</v>
+        <v>6.132354999999999</v>
       </c>
       <c r="O5">
-        <v>0.133324603936485</v>
+        <v>0.1776005292722278</v>
       </c>
       <c r="P5">
-        <v>0.133324603936485</v>
+        <v>0.1776005292722278</v>
       </c>
       <c r="Q5">
-        <v>495.6992665120979</v>
+        <v>706.3789795211816</v>
       </c>
       <c r="R5">
-        <v>495.6992665120979</v>
+        <v>6357.410815690633</v>
       </c>
       <c r="S5">
-        <v>0.1212920100263562</v>
+        <v>0.1610690157757915</v>
       </c>
       <c r="T5">
-        <v>0.1212920100263562</v>
+        <v>0.1610690157757915</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>341.49718029295</v>
+        <v>345.566579</v>
       </c>
       <c r="H6">
-        <v>341.49718029295</v>
+        <v>1036.699737</v>
       </c>
       <c r="I6">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350353</v>
       </c>
       <c r="J6">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350354</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.04835693560671</v>
+        <v>7.059280333333334</v>
       </c>
       <c r="N6">
-        <v>7.04835693560671</v>
+        <v>21.177841</v>
       </c>
       <c r="O6">
-        <v>0.6473915657499887</v>
+        <v>0.6133362746356149</v>
       </c>
       <c r="P6">
-        <v>0.6473915657499887</v>
+        <v>0.6133362746356149</v>
       </c>
       <c r="Q6">
-        <v>2406.994019207949</v>
+        <v>2439.45135499198</v>
       </c>
       <c r="R6">
-        <v>2406.994019207949</v>
+        <v>21955.06219492782</v>
       </c>
       <c r="S6">
-        <v>0.5889642418989234</v>
+        <v>0.5562453586144643</v>
       </c>
       <c r="T6">
-        <v>0.5889642418989234</v>
+        <v>0.5562453586144644</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>341.49718029295</v>
+        <v>345.566579</v>
       </c>
       <c r="H7">
-        <v>341.49718029295</v>
+        <v>1036.699737</v>
       </c>
       <c r="I7">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350353</v>
       </c>
       <c r="J7">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350354</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.38741248423003</v>
+        <v>2.406242333333333</v>
       </c>
       <c r="N7">
-        <v>2.38741248423003</v>
+        <v>7.218726999999999</v>
       </c>
       <c r="O7">
-        <v>0.2192838303135265</v>
+        <v>0.2090631960921573</v>
       </c>
       <c r="P7">
-        <v>0.2192838303135265</v>
+        <v>0.2090631960921573</v>
       </c>
       <c r="Q7">
-        <v>815.2946315607423</v>
+        <v>831.5169313749776</v>
       </c>
       <c r="R7">
-        <v>815.2946315607423</v>
+        <v>7483.652382374798</v>
       </c>
       <c r="S7">
-        <v>0.1994933850144935</v>
+        <v>0.1896030567447794</v>
       </c>
       <c r="T7">
-        <v>0.1994933850144935</v>
+        <v>0.1896030567447795</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.32995960382183</v>
+        <v>8.428738666666668</v>
       </c>
       <c r="H8">
-        <v>8.32995960382183</v>
+        <v>25.286216</v>
       </c>
       <c r="I8">
-        <v>0.02219104040273193</v>
+        <v>0.0221206866746274</v>
       </c>
       <c r="J8">
-        <v>0.02219104040273193</v>
+        <v>0.02212068667462741</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.45154717262048</v>
+        <v>2.044118333333333</v>
       </c>
       <c r="N8">
-        <v>1.45154717262048</v>
+        <v>6.132354999999999</v>
       </c>
       <c r="O8">
-        <v>0.133324603936485</v>
+        <v>0.1776005292722278</v>
       </c>
       <c r="P8">
-        <v>0.133324603936485</v>
+        <v>0.1776005292722278</v>
       </c>
       <c r="Q8">
-        <v>12.09132931097039</v>
+        <v>17.22933923540889</v>
       </c>
       <c r="R8">
-        <v>12.09132931097039</v>
+        <v>155.06405311868</v>
       </c>
       <c r="S8">
-        <v>0.002958611672632771</v>
+        <v>0.003928645661278943</v>
       </c>
       <c r="T8">
-        <v>0.002958611672632771</v>
+        <v>0.003928645661278944</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.32995960382183</v>
+        <v>8.428738666666668</v>
       </c>
       <c r="H9">
-        <v>8.32995960382183</v>
+        <v>25.286216</v>
       </c>
       <c r="I9">
-        <v>0.02219104040273193</v>
+        <v>0.0221206866746274</v>
       </c>
       <c r="J9">
-        <v>0.02219104040273193</v>
+        <v>0.02212068667462741</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.04835693560671</v>
+        <v>7.059280333333334</v>
       </c>
       <c r="N9">
-        <v>7.04835693560671</v>
+        <v>21.177841</v>
       </c>
       <c r="O9">
-        <v>0.6473915657499887</v>
+        <v>0.6133362746356149</v>
       </c>
       <c r="P9">
-        <v>0.6473915657499887</v>
+        <v>0.6133362746356149</v>
       </c>
       <c r="Q9">
-        <v>58.71252854692133</v>
+        <v>59.50082910440623</v>
       </c>
       <c r="R9">
-        <v>58.71252854692133</v>
+        <v>535.5074619396561</v>
       </c>
       <c r="S9">
-        <v>0.01436629239194589</v>
+        <v>0.01356741955739766</v>
       </c>
       <c r="T9">
-        <v>0.01436629239194589</v>
+        <v>0.01356741955739766</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.32995960382183</v>
+        <v>8.428738666666668</v>
       </c>
       <c r="H10">
-        <v>8.32995960382183</v>
+        <v>25.286216</v>
       </c>
       <c r="I10">
-        <v>0.02219104040273193</v>
+        <v>0.0221206866746274</v>
       </c>
       <c r="J10">
-        <v>0.02219104040273193</v>
+        <v>0.02212068667462741</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.38741248423003</v>
+        <v>2.406242333333333</v>
       </c>
       <c r="N10">
-        <v>2.38741248423003</v>
+        <v>7.218726999999999</v>
       </c>
       <c r="O10">
-        <v>0.2192838303135265</v>
+        <v>0.2090631960921573</v>
       </c>
       <c r="P10">
-        <v>0.2192838303135265</v>
+        <v>0.2090631960921573</v>
       </c>
       <c r="Q10">
-        <v>19.88704955129607</v>
+        <v>20.28158779633689</v>
       </c>
       <c r="R10">
-        <v>19.88704955129607</v>
+        <v>182.534290167032</v>
       </c>
       <c r="S10">
-        <v>0.004866136338153279</v>
+        <v>0.004624621455950799</v>
       </c>
       <c r="T10">
-        <v>0.004866136338153279</v>
+        <v>0.0046246214559508</v>
       </c>
     </row>
   </sheetData>
